--- a/ART-PI硬件/ART_PI_引脚分布.xlsx
+++ b/ART-PI硬件/ART_PI_引脚分布.xlsx
@@ -69,7 +69,7 @@
     <t>PF1</t>
   </si>
   <si>
-    <t>KEY(高电平按下)</t>
+    <t>KEY(低电平按下)</t>
   </si>
   <si>
     <t>GPIO_USER_KEY1</t>
@@ -2104,7 +2104,7 @@
   <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:A20"/>
+      <selection activeCell="A3" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>

--- a/ART-PI硬件/ART_PI_引脚分布.xlsx
+++ b/ART-PI硬件/ART_PI_引脚分布.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="313">
   <si>
     <t>DEBUG(低电平点亮)</t>
   </si>
@@ -732,6 +732,9 @@
     <t>PH5</t>
   </si>
   <si>
+    <t>写入使能，低电平有效</t>
+  </si>
+  <si>
     <t>I2C4</t>
   </si>
   <si>
@@ -955,9 +958,6 @@
   </si>
   <si>
     <t>FT5206复位</t>
-  </si>
-  <si>
-    <t>写入使能，低电平有效</t>
   </si>
   <si>
     <t>无复用，直接配置</t>
@@ -1734,7 +1734,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1781,6 +1781,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -2101,10 +2102,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I54"/>
+  <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -2117,6 +2118,7 @@
     <col min="6" max="7" width="12.7777777777778" style="15" customWidth="1"/>
     <col min="8" max="8" width="24.7777777777778" style="15" customWidth="1"/>
     <col min="9" max="9" width="12.7777777777778" style="17" customWidth="1"/>
+    <col min="10" max="10" width="36.5925925925926" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2992,7 +2994,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:10">
       <c r="A38" s="26"/>
       <c r="B38" s="19" t="s">
         <v>230</v>
@@ -3011,243 +3013,246 @@
       <c r="H38" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="I38" s="7" t="s">
+      <c r="I38" s="32" t="s">
         <v>235</v>
+      </c>
+      <c r="J38" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="23" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D39" s="27"/>
       <c r="E39" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F39" s="29" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G39" s="28"/>
       <c r="H39" s="6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="26"/>
       <c r="B40" s="13" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D40" s="26"/>
       <c r="E40" s="6" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F40" s="29" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G40" s="23" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="I40" s="32" t="s">
         <v>249</v>
+      </c>
+      <c r="I40" s="33" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="23" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D41" s="23" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G41" s="27"/>
       <c r="H41" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="I41" s="32" t="s">
         <v>257</v>
+      </c>
+      <c r="I41" s="33" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="27"/>
       <c r="B42" s="19" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D42" s="27"/>
       <c r="E42" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G42" s="27"/>
       <c r="H42" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="I42" s="32" t="s">
         <v>263</v>
+      </c>
+      <c r="I42" s="33" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="27"/>
       <c r="B43" s="19" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D43" s="27"/>
       <c r="E43" s="4" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G43" s="27"/>
       <c r="H43" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="I43" s="32" t="s">
         <v>269</v>
+      </c>
+      <c r="I43" s="33" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="26"/>
       <c r="B44" s="19" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D44" s="27"/>
       <c r="E44" s="4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G44" s="27"/>
       <c r="H44" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="I44" s="32" t="s">
         <v>274</v>
+      </c>
+      <c r="I44" s="33" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="23" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D45" s="27"/>
       <c r="E45" s="4" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G45" s="27"/>
       <c r="H45" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="I45" s="32" t="s">
         <v>281</v>
+      </c>
+      <c r="I45" s="33" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="27"/>
       <c r="B46" s="13" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D46" s="27"/>
       <c r="E46" s="4" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G46" s="26"/>
       <c r="H46" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="I46" s="32" t="s">
         <v>287</v>
+      </c>
+      <c r="I46" s="33" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="27"/>
       <c r="B47" s="13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D47" s="27"/>
       <c r="E47" s="4" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="27"/>
       <c r="B48" s="13" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D48" s="26"/>
       <c r="E48" s="4" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="26"/>
       <c r="B49" s="13" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E49" s="30" t="s">
         <v>207</v>
@@ -3282,7 +3287,7 @@
     </row>
     <row r="53" spans="5:6">
       <c r="E53" s="30" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F53" s="31" t="s">
         <v>233</v>
@@ -3290,10 +3295,10 @@
     </row>
     <row r="54" spans="5:6">
       <c r="E54" s="30" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F54" s="31" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -3327,7 +3332,7 @@
   <sheetPr/>
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="D2" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="D22" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
@@ -3349,31 +3354,31 @@
     <row r="1" s="1" customFormat="1" ht="33" customHeight="1" spans="1:12">
       <c r="A1" s="2"/>
       <c r="B1" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>299</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="2" ht="15.6" spans="1:11">
@@ -4012,7 +4017,7 @@
         <v>174</v>
       </c>
       <c r="E30" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>177</v>
@@ -4033,10 +4038,10 @@
         <v>182</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>183</v>
@@ -4057,10 +4062,10 @@
         <v>189</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E32" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>190</v>
@@ -4081,10 +4086,10 @@
         <v>195</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E33" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>196</v>
@@ -4107,7 +4112,7 @@
         <v>2</v>
       </c>
       <c r="E34" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>202</v>
@@ -4171,21 +4176,21 @@
         <v>235</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I39" t="s">
-        <v>311</v>
+        <v>236</v>
       </c>
     </row>
     <row r="40" spans="6:8">
       <c r="F40" s="6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="41" spans="6:6">
